--- a/src/main/resources/static/other/fillingBlankTemplate.xlsx
+++ b/src/main/resources/static/other/fillingBlankTemplate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\intelliJCode\onlineexam\src\main\resources\static\other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BF42C96-C463-4C51-A9CC-A874B2580614}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B751E18-1353-4A42-9DFF-65ADDC0B49C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>题目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -60,6 +60,51 @@
   </si>
   <si>
     <t>所属科目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空格数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在单链表中要在已知结点*P之前插入一个新结点，需找到*P的直接前趋结点的地址，其查找的时间复杂度为（   ）。</t>
+  </si>
+  <si>
+    <t>设无向图G中有n个顶点e条边，所有顶点的度数之和为m，则e和m有（   ）关系。</t>
+  </si>
+  <si>
+    <t>顺序查找技术适合于存储结构为（ ）的线性表</t>
+  </si>
+  <si>
+    <t>对n个元素进行起泡排序，在（    ）情况下比较的次数最少，其比较次数为（    ）。</t>
+  </si>
+  <si>
+    <t>快速排序算法的空间复杂度平均情况下为（    ），最坏的情况下为（    ）。</t>
+  </si>
+  <si>
+    <t>树形结构中的元素之间存在（    ）的关系</t>
+  </si>
+  <si>
+    <t>O(n)</t>
+  </si>
+  <si>
+    <t>m=2e</t>
+  </si>
+  <si>
+    <t>顺序存储和链接存储</t>
+  </si>
+  <si>
+    <t>正序</t>
+  </si>
+  <si>
+    <t>n-1</t>
+  </si>
+  <si>
+    <t>一对多</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O(nlog2n)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -67,7 +112,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -81,6 +126,20 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF333333"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -103,8 +162,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -385,15 +446,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -420,6 +481,81 @@
       </c>
       <c r="I1" t="s">
         <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
